--- a/data/nzd0536/nzd0536.xlsx
+++ b/data/nzd0536/nzd0536.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G462"/>
+  <dimension ref="A1:G468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12669,6 +12669,160 @@
       <c r="G462" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-02 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>333.955</v>
+      </c>
+      <c r="C463" t="n">
+        <v>325.7911111111111</v>
+      </c>
+      <c r="D463" t="n">
+        <v>318.7366666666667</v>
+      </c>
+      <c r="E463" t="n">
+        <v>320.105</v>
+      </c>
+      <c r="F463" t="n">
+        <v>324.8433333333333</v>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>325.73</v>
+      </c>
+      <c r="C464" t="n">
+        <v>325.04</v>
+      </c>
+      <c r="D464" t="n">
+        <v>311.12</v>
+      </c>
+      <c r="E464" t="n">
+        <v>306.71</v>
+      </c>
+      <c r="F464" t="n">
+        <v>313.88</v>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>335.16</v>
+      </c>
+      <c r="C465" t="n">
+        <v>327.6033333333333</v>
+      </c>
+      <c r="D465" t="n">
+        <v>308.45</v>
+      </c>
+      <c r="E465" t="n">
+        <v>312.15</v>
+      </c>
+      <c r="F465" t="n">
+        <v>318.16</v>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>340.545</v>
+      </c>
+      <c r="C466" t="n">
+        <v>326.0955555555556</v>
+      </c>
+      <c r="D466" t="n">
+        <v>324.6333333333334</v>
+      </c>
+      <c r="E466" t="n">
+        <v>322.535</v>
+      </c>
+      <c r="F466" t="n">
+        <v>322.8466666666667</v>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>340.305</v>
+      </c>
+      <c r="C467" t="n">
+        <v>338.2055555555555</v>
+      </c>
+      <c r="D467" t="n">
+        <v>325.3633333333333</v>
+      </c>
+      <c r="E467" t="n">
+        <v>324.555</v>
+      </c>
+      <c r="F467" t="n">
+        <v>332.9866666666667</v>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 22:27:08+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="n">
+        <v>317.7233333333333</v>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -12683,7 +12837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B539"/>
+  <dimension ref="A1:B545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18081,6 +18235,66 @@
       </c>
       <c r="B539" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2024-12-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-02-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -18249,28 +18463,28 @@
         <v>0.09080000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0585154803380038</v>
+        <v>0.07090828570197037</v>
       </c>
       <c r="J2" t="n">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K2" t="n">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002042924856560102</v>
+        <v>0.003045691195784683</v>
       </c>
       <c r="M2" t="n">
-        <v>6.926698755715966</v>
+        <v>6.926749537003335</v>
       </c>
       <c r="N2" t="n">
-        <v>89.10097980457456</v>
+        <v>88.77979716790398</v>
       </c>
       <c r="O2" t="n">
-        <v>9.439331533777938</v>
+        <v>9.422303177456348</v>
       </c>
       <c r="P2" t="n">
-        <v>327.9862497174515</v>
+        <v>327.8653681046476</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -18326,28 +18540,28 @@
         <v>0.0514</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07006015466888843</v>
+        <v>0.08116748539245093</v>
       </c>
       <c r="J3" t="n">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K3" t="n">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002203522898192256</v>
+        <v>0.003014128938485183</v>
       </c>
       <c r="M3" t="n">
-        <v>8.347009434496703</v>
+        <v>8.299026134712648</v>
       </c>
       <c r="N3" t="n">
-        <v>118.3913100992527</v>
+        <v>117.5870691746971</v>
       </c>
       <c r="O3" t="n">
-        <v>10.88077709078045</v>
+        <v>10.84375715214506</v>
       </c>
       <c r="P3" t="n">
-        <v>321.8166378617174</v>
+        <v>321.7083939370302</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -18403,28 +18617,28 @@
         <v>0.0871</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08844034908080026</v>
+        <v>0.09749522672366662</v>
       </c>
       <c r="J4" t="n">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K4" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004785680077678545</v>
+        <v>0.005904701082727448</v>
       </c>
       <c r="M4" t="n">
-        <v>6.648716548075672</v>
+        <v>6.649556011934994</v>
       </c>
       <c r="N4" t="n">
-        <v>86.41770005163986</v>
+        <v>86.14998426868925</v>
       </c>
       <c r="O4" t="n">
-        <v>9.296112093323739</v>
+        <v>9.281701582613463</v>
       </c>
       <c r="P4" t="n">
-        <v>311.4029049918111</v>
+        <v>311.3147271752763</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -18480,28 +18694,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002053965045966245</v>
+        <v>0.006116822211039624</v>
       </c>
       <c r="J5" t="n">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K5" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L5" t="n">
-        <v>3.063398142266749e-06</v>
+        <v>2.765304250995637e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.266391219923126</v>
+        <v>6.26832913117314</v>
       </c>
       <c r="N5" t="n">
-        <v>72.21789724020768</v>
+        <v>71.94129056133845</v>
       </c>
       <c r="O5" t="n">
-        <v>8.498111392551152</v>
+        <v>8.481821181877065</v>
       </c>
       <c r="P5" t="n">
-        <v>315.4231939414083</v>
+        <v>315.3833411890711</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -18557,28 +18771,28 @@
         <v>0.068</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04661252163812814</v>
+        <v>0.046978954071039</v>
       </c>
       <c r="J6" t="n">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K6" t="n">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001130657868240847</v>
+        <v>0.001177483737335949</v>
       </c>
       <c r="M6" t="n">
-        <v>7.589583290305673</v>
+        <v>7.556387356758774</v>
       </c>
       <c r="N6" t="n">
-        <v>101.8558659294364</v>
+        <v>100.9874392877767</v>
       </c>
       <c r="O6" t="n">
-        <v>10.09236671596095</v>
+        <v>10.04925068290052</v>
       </c>
       <c r="P6" t="n">
-        <v>320.420511687252</v>
+        <v>320.4169303651748</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -18615,7 +18829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G462"/>
+  <dimension ref="A1:G468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35221,6 +35435,212 @@
         </is>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-02 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-46.38401683881277,168.01545890565885</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-46.383798877615064,168.01461610522657</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-46.38359048422613,168.01376927252642</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-46.38345472843917,168.01289181837836</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-46.3833480348362,168.01200211146573</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-46.383945906196345,168.01548880728134</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-46.383792400030536,168.01461883591395</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-46.38352479823881,168.01379696366382</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-46.38333921053403,168.01294051826488</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-46.38325348779433,168.01204197156292</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-46.3840272307635,168.01545452492772</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-46.383814506224645,168.01460951683438</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-46.38350177220765,168.01380667069304</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-46.38338612486423,168.01292074021188</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-46.383290398225995,168.01202641050915</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-46.384073671137884,168.01543494794524</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-46.38380150314486,168.01461499840926</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-46.383641336959684,168.01374783456754</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-46.383475684651614,168.01288298366046</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-46.38333081572004,168.01200937088655</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-46.38407160137201,168.01543582045775</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-46.38390593980807,168.0145709720321</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-46.383647632464466,168.01374518057185</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-46.38349310504145,168.0128756395683</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-46.38341826237648,168.0119725041268</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 22:27:08+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-46.383286632442214,168.0120279981255</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0536/nzd0536.xlsx
+++ b/data/nzd0536/nzd0536.xlsx
@@ -18308,7 +18308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18399,35 +18399,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -18486,27 +18491,28 @@
       <c r="P2" t="n">
         <v>327.8653681046476</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (168.01667291615348 -46.38113679288719, 168.0134895899016 -46.38868798128543)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>168.0166729161535</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.38113679288719</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>168.0134895899016</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.38868798128543</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>168.0150812530275</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.38491238708631</v>
       </c>
     </row>
@@ -18563,27 +18569,28 @@
       <c r="P3" t="n">
         <v>321.7083939370302</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (168.0158004624836 -46.380989245101595, 168.01261706289762 -46.38854041926523)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>168.0158004624836</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.3809892451016</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>168.0126170628976</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.38854041926523</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>168.0142087626906</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.38476483218341</v>
       </c>
     </row>
@@ -18640,27 +18647,28 @@
       <c r="P4" t="n">
         <v>311.3147271752763</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (168.01492800881306 -46.38084169691757, 168.01174453589454 -46.388392856845506)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>168.0149280088131</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.38084169691757</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>168.0117445358945</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.38839285684551</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>168.0133362723538</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.38461727688154</v>
       </c>
     </row>
@@ -18717,27 +18725,28 @@
       <c r="P5" t="n">
         <v>315.3833411890711</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (168.01405555514233 -46.380694148335145, 168.0108720088922 -46.3882452940262)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>168.0140555551423</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.38069414833515</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>168.0108720088922</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.3882452940262</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>168.0124637820173</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.38446972118067</v>
       </c>
     </row>
@@ -18794,27 +18803,28 @@
       <c r="P6" t="n">
         <v>320.4169303651748</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (168.0131831014711 -46.38054659935429, 168.00999948189087 -46.38809773080736)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>168.0131831014711</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.38054659935429</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>168.0099994818909</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.38809773080736</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>168.011591291681</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.38432216508082</v>
       </c>
     </row>

--- a/data/nzd0536/nzd0536.xlsx
+++ b/data/nzd0536/nzd0536.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G468"/>
+  <dimension ref="A1:G474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12821,6 +12821,168 @@
         <v>317.7233333333333</v>
       </c>
       <c r="G468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>330.825</v>
+      </c>
+      <c r="C469" t="n">
+        <v>331.3988888888889</v>
+      </c>
+      <c r="D469" t="n">
+        <v>316.1933333333333</v>
+      </c>
+      <c r="E469" t="n">
+        <v>323.095</v>
+      </c>
+      <c r="F469" t="n">
+        <v>330.8266666666667</v>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>327.3</v>
+      </c>
+      <c r="C470" t="n">
+        <v>324.01</v>
+      </c>
+      <c r="D470" t="n">
+        <v>312.43</v>
+      </c>
+      <c r="E470" t="n">
+        <v>321.38</v>
+      </c>
+      <c r="F470" t="n">
+        <v>325.78</v>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>327.95</v>
+      </c>
+      <c r="C471" t="n">
+        <v>312.3522222222222</v>
+      </c>
+      <c r="D471" t="n">
+        <v>310.4833333333333</v>
+      </c>
+      <c r="E471" t="n">
+        <v>318.74</v>
+      </c>
+      <c r="F471" t="n">
+        <v>317.7766666666667</v>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:26:41+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>329.51</v>
+      </c>
+      <c r="C472" t="n">
+        <v>326.9711111111111</v>
+      </c>
+      <c r="D472" t="n">
+        <v>316.2466666666667</v>
+      </c>
+      <c r="E472" t="n">
+        <v>319.3</v>
+      </c>
+      <c r="F472" t="n">
+        <v>336.2033333333333</v>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>332.215</v>
+      </c>
+      <c r="C473" t="n">
+        <v>321.9022222222222</v>
+      </c>
+      <c r="D473" t="n">
+        <v>318.9033333333334</v>
+      </c>
+      <c r="E473" t="n">
+        <v>323.445</v>
+      </c>
+      <c r="F473" t="n">
+        <v>324.4766666666667</v>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>328.355</v>
+      </c>
+      <c r="C474" t="n">
+        <v>324.0144444444445</v>
+      </c>
+      <c r="D474" t="n">
+        <v>313.6966666666667</v>
+      </c>
+      <c r="E474" t="n">
+        <v>318.795</v>
+      </c>
+      <c r="F474" t="n">
+        <v>321.1733333333333</v>
+      </c>
+      <c r="G474" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12837,7 +12999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B545"/>
+  <dimension ref="A1:B551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18295,6 +18457,66 @@
       </c>
       <c r="B545" t="n">
         <v>-0.25</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -18468,28 +18690,28 @@
         <v>0.09080000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07090828570197037</v>
+        <v>0.07004884379275622</v>
       </c>
       <c r="J2" t="n">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K2" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003045691195784683</v>
+        <v>0.003057559048501912</v>
       </c>
       <c r="M2" t="n">
-        <v>6.926749537003335</v>
+        <v>6.856237342215092</v>
       </c>
       <c r="N2" t="n">
-        <v>88.77979716790398</v>
+        <v>87.65399843983923</v>
       </c>
       <c r="O2" t="n">
-        <v>9.422303177456348</v>
+        <v>9.362371411124386</v>
       </c>
       <c r="P2" t="n">
-        <v>327.8653681046476</v>
+        <v>327.8738536428303</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18546,28 +18768,28 @@
         <v>0.0514</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08116748539245093</v>
+        <v>0.08020940737387269</v>
       </c>
       <c r="J3" t="n">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K3" t="n">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003014128938485183</v>
+        <v>0.003019695352761254</v>
       </c>
       <c r="M3" t="n">
-        <v>8.299026134712648</v>
+        <v>8.243202729455302</v>
       </c>
       <c r="N3" t="n">
-        <v>117.5870691746971</v>
+        <v>116.4593014077987</v>
       </c>
       <c r="O3" t="n">
-        <v>10.84375715214506</v>
+        <v>10.79163108189854</v>
       </c>
       <c r="P3" t="n">
-        <v>321.7083939370302</v>
+        <v>321.7179010478488</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18624,28 +18846,28 @@
         <v>0.0871</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09749522672366662</v>
+        <v>0.09971930316548611</v>
       </c>
       <c r="J4" t="n">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K4" t="n">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005904701082727448</v>
+        <v>0.006352633166662569</v>
       </c>
       <c r="M4" t="n">
-        <v>6.649556011934994</v>
+        <v>6.5924661020744</v>
       </c>
       <c r="N4" t="n">
-        <v>86.14998426868925</v>
+        <v>85.10582900192803</v>
       </c>
       <c r="O4" t="n">
-        <v>9.281701582613463</v>
+        <v>9.225282055413158</v>
       </c>
       <c r="P4" t="n">
-        <v>311.3147271752763</v>
+        <v>311.2927454543254</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18702,28 +18924,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006116822211039624</v>
+        <v>0.02052774993209198</v>
       </c>
       <c r="J5" t="n">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K5" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="L5" t="n">
-        <v>2.765304250995637e-05</v>
+        <v>0.0003192208229814142</v>
       </c>
       <c r="M5" t="n">
-        <v>6.26832913117314</v>
+        <v>6.247206221317812</v>
       </c>
       <c r="N5" t="n">
-        <v>71.94129056133845</v>
+        <v>71.37251715322689</v>
       </c>
       <c r="O5" t="n">
-        <v>8.481821181877065</v>
+        <v>8.448225680770305</v>
       </c>
       <c r="P5" t="n">
-        <v>315.3833411890711</v>
+        <v>315.240504912984</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18780,28 +19002,28 @@
         <v>0.068</v>
       </c>
       <c r="I6" t="n">
-        <v>0.046978954071039</v>
+        <v>0.05876691041119669</v>
       </c>
       <c r="J6" t="n">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K6" t="n">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001177483737335949</v>
+        <v>0.001883331230745244</v>
       </c>
       <c r="M6" t="n">
-        <v>7.556387356758774</v>
+        <v>7.531342510162266</v>
       </c>
       <c r="N6" t="n">
-        <v>100.9874392877767</v>
+        <v>100.3758016965627</v>
       </c>
       <c r="O6" t="n">
-        <v>10.04925068290052</v>
+        <v>10.01877246455686</v>
       </c>
       <c r="P6" t="n">
-        <v>320.4169303651748</v>
+        <v>320.301173839249</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18839,7 +19061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G468"/>
+  <dimension ref="A1:G474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35651,6 +35873,228 @@
         </is>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-46.383989845611765,168.01547028464495</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-46.38384723910474,168.01459571795675</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-46.38356855056931,168.01377851907185</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-46.3834805140667,168.01288094767503</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-46.383399634687805,168.01198035741186</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-46.38395944591854,168.01548309962254</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-46.38378351730722,168.01462258050927</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-46.3835360956544,168.01379220103576</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-46.383465723982866,168.01288718287915</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-46.38335611258497,168.01199870595943</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-46.383965051535874,168.0154807365782</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-46.38368298058171,168.01466496261102</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-46.383519307637236,168.01379927832454</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-46.38344295673914,168.01289678108705</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-46.383287092385274,168.01202780421818</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:26:41+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-46.383978505017225,168.0154750652696</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-46.38380905393847,168.01461181529905</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-46.383569010514954,168.0137783251732</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-46.38344778615457,168.0128947451043</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-46.38344600268299,168.01196080902324</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-46.38400183300794,168.0154652313587</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-46.38376533982434,168.01463024339333</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-46.383591921556174,168.01376866659263</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-46.38348353245109,168.0128796751839</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-46.38334487272812,168.01200344458178</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-46.38396854426666,168.01547926421952</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-46.383783555636136,168.01462256435138</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-46.38354701936384,168.013787595948</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-46.38344343105673,168.01289658112447</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-46.38331638500779,168.0120154547379</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0536/nzd0536.xlsx
+++ b/data/nzd0536/nzd0536.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G474"/>
+  <dimension ref="A1:G476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12985,6 +12985,60 @@
       <c r="G474" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:26:34+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>318.825</v>
+      </c>
+      <c r="C475" t="n">
+        <v>318.3677777777777</v>
+      </c>
+      <c r="D475" t="n">
+        <v>305.0866666666666</v>
+      </c>
+      <c r="E475" t="n">
+        <v>311.975</v>
+      </c>
+      <c r="F475" t="n">
+        <v>315.8833333333333</v>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:26:24+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>327.22</v>
+      </c>
+      <c r="C476" t="n">
+        <v>316.3444444444444</v>
+      </c>
+      <c r="D476" t="n">
+        <v>309.5066666666667</v>
+      </c>
+      <c r="E476" t="n">
+        <v>308.91</v>
+      </c>
+      <c r="F476" t="n">
+        <v>308.2133333333333</v>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -12999,7 +13053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B551"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18517,6 +18571,26 @@
       </c>
       <c r="B551" t="n">
         <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -18690,28 +18764,28 @@
         <v>0.09080000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07004884379275622</v>
+        <v>0.06434951896646916</v>
       </c>
       <c r="J2" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K2" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003057559048501912</v>
+        <v>0.002597732993846247</v>
       </c>
       <c r="M2" t="n">
-        <v>6.856237342215092</v>
+        <v>6.855389843934242</v>
       </c>
       <c r="N2" t="n">
-        <v>87.65399843983923</v>
+        <v>87.53949488828371</v>
       </c>
       <c r="O2" t="n">
-        <v>9.362371411124386</v>
+        <v>9.356254319346162</v>
       </c>
       <c r="P2" t="n">
-        <v>327.8738536428303</v>
+        <v>327.9303914735002</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18768,28 +18842,28 @@
         <v>0.0514</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08020940737387269</v>
+        <v>0.07456520072795433</v>
       </c>
       <c r="J3" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K3" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003019695352761254</v>
+        <v>0.002631588165667553</v>
       </c>
       <c r="M3" t="n">
-        <v>8.243202729455302</v>
+        <v>8.239746546720314</v>
       </c>
       <c r="N3" t="n">
-        <v>116.4593014077987</v>
+        <v>116.1261798508205</v>
       </c>
       <c r="O3" t="n">
-        <v>10.79163108189854</v>
+        <v>10.77618577469879</v>
       </c>
       <c r="P3" t="n">
-        <v>321.7179010478488</v>
+        <v>321.7738638736563</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18846,28 +18920,28 @@
         <v>0.0871</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09971930316548611</v>
+        <v>0.09393156747128334</v>
       </c>
       <c r="J4" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K4" t="n">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006352633166662569</v>
+        <v>0.005681073213822052</v>
       </c>
       <c r="M4" t="n">
-        <v>6.5924661020744</v>
+        <v>6.59432753911593</v>
       </c>
       <c r="N4" t="n">
-        <v>85.10582900192803</v>
+        <v>84.93816074459676</v>
       </c>
       <c r="O4" t="n">
-        <v>9.225282055413158</v>
+        <v>9.216190142602136</v>
       </c>
       <c r="P4" t="n">
-        <v>311.2927454543254</v>
+        <v>311.3500176544089</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18924,28 +18998,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02052774993209198</v>
+        <v>0.01569330330759919</v>
       </c>
       <c r="J5" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K5" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003192208229814142</v>
+        <v>0.0001881011710185287</v>
       </c>
       <c r="M5" t="n">
-        <v>6.247206221317812</v>
+        <v>6.244880788059142</v>
       </c>
       <c r="N5" t="n">
-        <v>71.37251715322689</v>
+        <v>71.18680602146927</v>
       </c>
       <c r="O5" t="n">
-        <v>8.448225680770305</v>
+        <v>8.437227389460904</v>
       </c>
       <c r="P5" t="n">
-        <v>315.240504912984</v>
+        <v>315.2885757877999</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19002,28 +19076,28 @@
         <v>0.068</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05876691041119669</v>
+        <v>0.05012810718535651</v>
       </c>
       <c r="J6" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K6" t="n">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001883331230745244</v>
+        <v>0.001377779614035846</v>
       </c>
       <c r="M6" t="n">
-        <v>7.531342510162266</v>
+        <v>7.542210085643138</v>
       </c>
       <c r="N6" t="n">
-        <v>100.3758016965627</v>
+        <v>100.413474739891</v>
       </c>
       <c r="O6" t="n">
-        <v>10.01877246455686</v>
+        <v>10.02065241089077</v>
       </c>
       <c r="P6" t="n">
-        <v>320.301173839249</v>
+        <v>320.3863063419541</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19061,7 +19135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G474"/>
+  <dimension ref="A1:G476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36095,6 +36169,80 @@
         </is>
       </c>
     </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:26:34+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-46.383886357285796,168.015513910037</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-46.38373485876148,168.0146430929507</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-46.38347276688081,168.01381889838635</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-46.38338461567171,168.01292137645498</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-46.383270764406426,168.01203468792613</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:26:24+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>-46.38395875599639,168.01548339045874</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-46.38371740952586,168.01465044882048</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-46.3835108848818,168.0138028290858</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-46.38335818324171,168.01293251979203</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-46.38320461883796,168.01206257416897</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0536/nzd0536.xlsx
+++ b/data/nzd0536/nzd0536.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0536/nzd0536.xlsx
+++ b/data/nzd0536/nzd0536.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G476"/>
+  <dimension ref="A1:G478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13037,6 +13037,54 @@
         <v>308.2133333333333</v>
       </c>
       <c r="G476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="n">
+        <v>299.275</v>
+      </c>
+      <c r="F477" t="n">
+        <v>296.1333333333333</v>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>330.06</v>
+      </c>
+      <c r="C478" t="n">
+        <v>329.8555555555556</v>
+      </c>
+      <c r="D478" t="n">
+        <v>317.2833333333334</v>
+      </c>
+      <c r="E478" t="n">
+        <v>318.51</v>
+      </c>
+      <c r="F478" t="n">
+        <v>321.9266666666667</v>
+      </c>
+      <c r="G478" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -13053,7 +13101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18591,6 +18639,26 @@
       </c>
       <c r="B553" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -18764,28 +18832,28 @@
         <v>0.09080000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06434951896646916</v>
+        <v>0.06454731166619414</v>
       </c>
       <c r="J2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K2" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002597732993846247</v>
+        <v>0.002625939523674958</v>
       </c>
       <c r="M2" t="n">
-        <v>6.855389843934242</v>
+        <v>6.841471385201809</v>
       </c>
       <c r="N2" t="n">
-        <v>87.53949488828371</v>
+        <v>87.34965050406925</v>
       </c>
       <c r="O2" t="n">
-        <v>9.356254319346162</v>
+        <v>9.346103493117827</v>
       </c>
       <c r="P2" t="n">
-        <v>327.9303914735002</v>
+        <v>327.9284196218627</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18842,28 +18910,28 @@
         <v>0.0514</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07456520072795433</v>
+        <v>0.07726707957360636</v>
       </c>
       <c r="J3" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K3" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002631588165667553</v>
+        <v>0.002836758236641646</v>
       </c>
       <c r="M3" t="n">
-        <v>8.239746546720314</v>
+        <v>8.232761532697431</v>
       </c>
       <c r="N3" t="n">
-        <v>116.1261798508205</v>
+        <v>115.9511440431171</v>
       </c>
       <c r="O3" t="n">
-        <v>10.77618577469879</v>
+        <v>10.76806129454681</v>
       </c>
       <c r="P3" t="n">
-        <v>321.7738638736563</v>
+        <v>321.7469526394949</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18920,28 +18988,28 @@
         <v>0.0871</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09393156747128334</v>
+        <v>0.09547521255521738</v>
       </c>
       <c r="J4" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K4" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005681073213822052</v>
+        <v>0.005894757056001843</v>
       </c>
       <c r="M4" t="n">
-        <v>6.59432753911593</v>
+        <v>6.586820543628603</v>
       </c>
       <c r="N4" t="n">
-        <v>84.93816074459676</v>
+        <v>84.77640317753067</v>
       </c>
       <c r="O4" t="n">
-        <v>9.216190142602136</v>
+        <v>9.207410231847534</v>
       </c>
       <c r="P4" t="n">
-        <v>311.3500176544089</v>
+        <v>311.3346698806638</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18998,28 +19066,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01569330330759919</v>
+        <v>0.009569311087281531</v>
       </c>
       <c r="J5" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K5" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001881011710185287</v>
+        <v>7.003303120112214e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.244880788059142</v>
+        <v>6.26271414312734</v>
       </c>
       <c r="N5" t="n">
-        <v>71.18680602146927</v>
+        <v>71.48825539809518</v>
       </c>
       <c r="O5" t="n">
-        <v>8.437227389460904</v>
+        <v>8.455072761253755</v>
       </c>
       <c r="P5" t="n">
-        <v>315.2885757877999</v>
+        <v>315.3496697131474</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19076,28 +19144,28 @@
         <v>0.068</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05012810718535651</v>
+        <v>0.03902082404127373</v>
       </c>
       <c r="J6" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K6" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001377779614035846</v>
+        <v>0.0008315212486882384</v>
       </c>
       <c r="M6" t="n">
-        <v>7.542210085643138</v>
+        <v>7.567935699251292</v>
       </c>
       <c r="N6" t="n">
-        <v>100.413474739891</v>
+        <v>101.4059873489034</v>
       </c>
       <c r="O6" t="n">
-        <v>10.02065241089077</v>
+        <v>10.07005398937381</v>
       </c>
       <c r="P6" t="n">
-        <v>320.3863063419541</v>
+        <v>320.4961446704976</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19135,7 +19203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G476"/>
+  <dimension ref="A1:G478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36243,6 +36311,68 @@
         </is>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-46.38327509139999,168.01296754942257</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-46.3831004417034,168.01210649394312</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-46.3839832482317,168.01547306576904</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-46.38383392939473,168.0146013288023</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-46.383577950708094,168.01377455626766</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-46.38344097322921,168.01289761729416</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-46.38332288170301,168.01201271579333</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0536/nzd0536.xlsx
+++ b/data/nzd0536/nzd0536.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G478"/>
+  <dimension ref="A1:G480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13087,6 +13087,60 @@
       <c r="G478" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>334.435</v>
+      </c>
+      <c r="C479" t="n">
+        <v>332.2766666666667</v>
+      </c>
+      <c r="D479" t="n">
+        <v>322.3</v>
+      </c>
+      <c r="E479" t="n">
+        <v>326.715</v>
+      </c>
+      <c r="F479" t="n">
+        <v>336.85</v>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>328.615</v>
+      </c>
+      <c r="C480" t="n">
+        <v>327.6066666666667</v>
+      </c>
+      <c r="D480" t="n">
+        <v>317.02</v>
+      </c>
+      <c r="E480" t="n">
+        <v>320.845</v>
+      </c>
+      <c r="F480" t="n">
+        <v>333.8</v>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:B557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18659,6 +18713,26 @@
       </c>
       <c r="B555" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -18832,28 +18906,28 @@
         <v>0.09080000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06454731166619414</v>
+        <v>0.06617627704834469</v>
       </c>
       <c r="J2" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K2" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002625939523674958</v>
+        <v>0.00278404679552402</v>
       </c>
       <c r="M2" t="n">
-        <v>6.841471385201809</v>
+        <v>6.824396059303384</v>
       </c>
       <c r="N2" t="n">
-        <v>87.34965050406925</v>
+        <v>87.02392387119811</v>
       </c>
       <c r="O2" t="n">
-        <v>9.346103493117827</v>
+        <v>9.328661419046041</v>
       </c>
       <c r="P2" t="n">
-        <v>327.9284196218627</v>
+        <v>327.9121537596558</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18910,28 +18984,28 @@
         <v>0.0514</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07726707957360636</v>
+        <v>0.08265762493688392</v>
       </c>
       <c r="J3" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K3" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002836758236641646</v>
+        <v>0.003270883392178403</v>
       </c>
       <c r="M3" t="n">
-        <v>8.232761532697431</v>
+        <v>8.218967663312036</v>
       </c>
       <c r="N3" t="n">
-        <v>115.9511440431171</v>
+        <v>115.6284852484702</v>
       </c>
       <c r="O3" t="n">
-        <v>10.76806129454681</v>
+        <v>10.7530686433441</v>
       </c>
       <c r="P3" t="n">
-        <v>321.7469526394949</v>
+        <v>321.6931121014075</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18988,28 +19062,28 @@
         <v>0.0871</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09547521255521738</v>
+        <v>0.1005875572645756</v>
       </c>
       <c r="J4" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K4" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005894757056001843</v>
+        <v>0.006588061517212807</v>
       </c>
       <c r="M4" t="n">
-        <v>6.586820543628603</v>
+        <v>6.581415617761619</v>
       </c>
       <c r="N4" t="n">
-        <v>84.77640317753067</v>
+        <v>84.58112702277955</v>
       </c>
       <c r="O4" t="n">
-        <v>9.207410231847534</v>
+        <v>9.196799825090222</v>
       </c>
       <c r="P4" t="n">
-        <v>311.3346698806638</v>
+        <v>311.2837035870817</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19066,28 +19140,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009569311087281531</v>
+        <v>0.01688469028025861</v>
       </c>
       <c r="J5" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K5" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L5" t="n">
-        <v>7.003303120112214e-05</v>
+        <v>0.0002191439524769079</v>
       </c>
       <c r="M5" t="n">
-        <v>6.26271414312734</v>
+        <v>6.267686386212736</v>
       </c>
       <c r="N5" t="n">
-        <v>71.48825539809518</v>
+        <v>71.50219530888299</v>
       </c>
       <c r="O5" t="n">
-        <v>8.455072761253755</v>
+        <v>8.455897072983031</v>
       </c>
       <c r="P5" t="n">
-        <v>315.3496697131474</v>
+        <v>315.2764123804949</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19144,28 +19218,28 @@
         <v>0.068</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03902082404127373</v>
+        <v>0.05106813460815483</v>
       </c>
       <c r="J6" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K6" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008315212486882384</v>
+        <v>0.001425372714599638</v>
       </c>
       <c r="M6" t="n">
-        <v>7.567935699251292</v>
+        <v>7.592573316954753</v>
       </c>
       <c r="N6" t="n">
-        <v>101.4059873489034</v>
+        <v>101.7992977198234</v>
       </c>
       <c r="O6" t="n">
-        <v>10.07005398937381</v>
+        <v>10.08956380225743</v>
       </c>
       <c r="P6" t="n">
-        <v>320.4961446704976</v>
+        <v>320.376540620611</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19203,7 +19277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G478"/>
+  <dimension ref="A1:G480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36373,6 +36447,80 @@
         </is>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-46.38402097834504,168.01545716063757</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-46.383854809062036,168.01459252676176</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-46.383621214341126,168.01375631765427</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-46.383511732784285,168.01286778647403</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-46.383451579490504,168.01195845788166</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-46.38397078651355,168.01547831900152</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-46.38381453497132,168.01460950471593</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-46.38357567972658,168.0137755136425</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-46.38346111016652,168.01288912797122</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-46.38342527650596,168.0119695470241</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0536/nzd0536.xlsx
+++ b/data/nzd0536/nzd0536.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G480"/>
+  <dimension ref="A1:G483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13141,6 +13141,81 @@
       <c r="G480" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:41+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr"/>
+      <c r="C481" t="inlineStr"/>
+      <c r="D481" t="inlineStr"/>
+      <c r="E481" t="n">
+        <v>315.8</v>
+      </c>
+      <c r="F481" t="n">
+        <v>317.06</v>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>323.795</v>
+      </c>
+      <c r="C482" t="n">
+        <v>315.8733333333333</v>
+      </c>
+      <c r="D482" t="n">
+        <v>305.86</v>
+      </c>
+      <c r="E482" t="n">
+        <v>311.525</v>
+      </c>
+      <c r="F482" t="n">
+        <v>319.65</v>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>332.16</v>
+      </c>
+      <c r="C483" t="n">
+        <v>327.2788888888889</v>
+      </c>
+      <c r="D483" t="n">
+        <v>318.3033333333333</v>
+      </c>
+      <c r="E483" t="n">
+        <v>326.45</v>
+      </c>
+      <c r="F483" t="n">
+        <v>331.4766666666667</v>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -13155,7 +13230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B557"/>
+  <dimension ref="A1:B561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18733,6 +18808,46 @@
       </c>
       <c r="B557" t="n">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>-0.26</v>
       </c>
     </row>
   </sheetData>
@@ -18906,28 +19021,28 @@
         <v>0.09080000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06617627704834469</v>
+        <v>0.06477655163871242</v>
       </c>
       <c r="J2" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K2" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00278404679552402</v>
+        <v>0.002690151887791092</v>
       </c>
       <c r="M2" t="n">
-        <v>6.824396059303384</v>
+        <v>6.813047245378825</v>
       </c>
       <c r="N2" t="n">
-        <v>87.02392387119811</v>
+        <v>86.73590325770147</v>
       </c>
       <c r="O2" t="n">
-        <v>9.328661419046041</v>
+        <v>9.313211221576662</v>
       </c>
       <c r="P2" t="n">
-        <v>327.9121537596558</v>
+        <v>327.9261742907129</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18984,28 +19099,28 @@
         <v>0.0514</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08265762493688392</v>
+        <v>0.08069667283247699</v>
       </c>
       <c r="J3" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K3" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003270883392178403</v>
+        <v>0.003143430079666776</v>
       </c>
       <c r="M3" t="n">
-        <v>8.218967663312036</v>
+        <v>8.209472598604451</v>
       </c>
       <c r="N3" t="n">
-        <v>115.6284852484702</v>
+        <v>115.283979506727</v>
       </c>
       <c r="O3" t="n">
-        <v>10.7530686433441</v>
+        <v>10.73703774356442</v>
       </c>
       <c r="P3" t="n">
-        <v>321.6931121014075</v>
+        <v>321.7127365285761</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19062,28 +19177,28 @@
         <v>0.0871</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1005875572645756</v>
+        <v>0.09900867792884689</v>
       </c>
       <c r="J4" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K4" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006588061517212807</v>
+        <v>0.00643178054086091</v>
       </c>
       <c r="M4" t="n">
-        <v>6.581415617761619</v>
+        <v>6.580348362151399</v>
       </c>
       <c r="N4" t="n">
-        <v>84.58112702277955</v>
+        <v>84.39341697759228</v>
       </c>
       <c r="O4" t="n">
-        <v>9.196799825090222</v>
+        <v>9.186588974020351</v>
       </c>
       <c r="P4" t="n">
-        <v>311.2837035870817</v>
+        <v>311.2994621671264</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19140,28 +19255,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01688469028025861</v>
+        <v>0.01982092127974682</v>
       </c>
       <c r="J5" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K5" t="n">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002191439524769079</v>
+        <v>0.0003051695617893868</v>
       </c>
       <c r="M5" t="n">
-        <v>6.267686386212736</v>
+        <v>6.257867320905358</v>
       </c>
       <c r="N5" t="n">
-        <v>71.50219530888299</v>
+        <v>71.31945583210822</v>
       </c>
       <c r="O5" t="n">
-        <v>8.455897072983031</v>
+        <v>8.445084714323961</v>
       </c>
       <c r="P5" t="n">
-        <v>315.2764123804949</v>
+        <v>315.2468213365144</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19218,28 +19333,28 @@
         <v>0.068</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05106813460815483</v>
+        <v>0.05240367197047752</v>
       </c>
       <c r="J6" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K6" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001425372714599638</v>
+        <v>0.001518527035361372</v>
       </c>
       <c r="M6" t="n">
-        <v>7.592573316954753</v>
+        <v>7.578541911469788</v>
       </c>
       <c r="N6" t="n">
-        <v>101.7992977198234</v>
+        <v>101.3952474435546</v>
       </c>
       <c r="O6" t="n">
-        <v>10.08956380225743</v>
+        <v>10.06952071568228</v>
       </c>
       <c r="P6" t="n">
-        <v>320.376540620611</v>
+        <v>320.3631398293435</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19277,7 +19392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G480"/>
+  <dimension ref="A1:G483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36521,6 +36636,105 @@
         </is>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:41+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr"/>
+      <c r="C481" t="inlineStr"/>
+      <c r="D481" t="inlineStr"/>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-46.38341760230723,168.01290746999013</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-46.3832809119004,168.0120304098476</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-46.383929218703756,168.01549584187566</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-46.38371334666146,168.01465216155384</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-46.38347943609388,168.01381608686643</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-46.38338073489089,168.01292301250845</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-46.38330324788489,168.01202099322103</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-46.38400135868651,168.01546543130894</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-46.38381170821489,168.0146106963629</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-46.383586747168046,168.01377084795413</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-46.383509447436246,168.0128687499327</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-46.38340524024235,168.0119779941554</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0536/nzd0536.xlsx
+++ b/data/nzd0536/nzd0536.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G483"/>
+  <dimension ref="A1:G485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13216,6 +13216,60 @@
       <c r="G483" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-31 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>319.23</v>
+      </c>
+      <c r="C484" t="n">
+        <v>320.4066666666667</v>
+      </c>
+      <c r="D484" t="n">
+        <v>307.45</v>
+      </c>
+      <c r="E484" t="n">
+        <v>308</v>
+      </c>
+      <c r="F484" t="n">
+        <v>314.27</v>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>323.76</v>
+      </c>
+      <c r="C485" t="n">
+        <v>315.9188888888889</v>
+      </c>
+      <c r="D485" t="n">
+        <v>307.3233333333333</v>
+      </c>
+      <c r="E485" t="n">
+        <v>312.27</v>
+      </c>
+      <c r="F485" t="n">
+        <v>316.6266666666667</v>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -13230,7 +13284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B561"/>
+  <dimension ref="A1:B563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18848,6 +18902,26 @@
       </c>
       <c r="B561" t="n">
         <v>-0.26</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-08-31 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -19021,28 +19095,28 @@
         <v>0.09080000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06477655163871242</v>
+        <v>0.05795808190750187</v>
       </c>
       <c r="J2" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K2" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002690151887791092</v>
+        <v>0.002167283920640362</v>
       </c>
       <c r="M2" t="n">
-        <v>6.813047245378825</v>
+        <v>6.819380024282734</v>
       </c>
       <c r="N2" t="n">
-        <v>86.73590325770147</v>
+        <v>86.66511538690588</v>
       </c>
       <c r="O2" t="n">
-        <v>9.313211221576662</v>
+        <v>9.309410045051505</v>
       </c>
       <c r="P2" t="n">
-        <v>327.9261742907129</v>
+        <v>327.9947986676292</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19099,28 +19173,28 @@
         <v>0.0514</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08069667283247699</v>
+        <v>0.07583290173223592</v>
       </c>
       <c r="J3" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K3" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003143430079666776</v>
+        <v>0.002799482146562893</v>
       </c>
       <c r="M3" t="n">
-        <v>8.209472598604451</v>
+        <v>8.202273852892706</v>
       </c>
       <c r="N3" t="n">
-        <v>115.283979506727</v>
+        <v>114.9382251798199</v>
       </c>
       <c r="O3" t="n">
-        <v>10.73703774356442</v>
+        <v>10.72092464201758</v>
       </c>
       <c r="P3" t="n">
-        <v>321.7127365285761</v>
+        <v>321.7616624373095</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19177,28 +19251,28 @@
         <v>0.0871</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09900867792884689</v>
+        <v>0.09340197098561114</v>
       </c>
       <c r="J4" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K4" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00643178054086091</v>
+        <v>0.005770402450915979</v>
       </c>
       <c r="M4" t="n">
-        <v>6.580348362151399</v>
+        <v>6.582140573827728</v>
       </c>
       <c r="N4" t="n">
-        <v>84.39341697759228</v>
+        <v>84.20606994145034</v>
       </c>
       <c r="O4" t="n">
-        <v>9.186588974020351</v>
+        <v>9.176386540542543</v>
       </c>
       <c r="P4" t="n">
-        <v>311.2994621671264</v>
+        <v>311.3557441853034</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19255,28 +19329,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01982092127974682</v>
+        <v>0.01489877635458984</v>
       </c>
       <c r="J5" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K5" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003051695617893868</v>
+        <v>0.0001737377853195943</v>
       </c>
       <c r="M5" t="n">
-        <v>6.257867320905358</v>
+        <v>6.257115926254958</v>
       </c>
       <c r="N5" t="n">
-        <v>71.31945583210822</v>
+        <v>71.16197894722706</v>
       </c>
       <c r="O5" t="n">
-        <v>8.445084714323961</v>
+        <v>8.435755979592289</v>
       </c>
       <c r="P5" t="n">
-        <v>315.2468213365144</v>
+        <v>315.2964358648713</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19333,28 +19407,28 @@
         <v>0.068</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05240367197047752</v>
+        <v>0.04704266881913615</v>
       </c>
       <c r="J6" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K6" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001518527035361372</v>
+        <v>0.001233597700273092</v>
       </c>
       <c r="M6" t="n">
-        <v>7.578541911469788</v>
+        <v>7.573315871448358</v>
       </c>
       <c r="N6" t="n">
-        <v>101.3952474435546</v>
+        <v>101.1286281928102</v>
       </c>
       <c r="O6" t="n">
-        <v>10.06952071568228</v>
+        <v>10.05627307668255</v>
       </c>
       <c r="P6" t="n">
-        <v>320.3631398293435</v>
+        <v>320.4167100394995</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19392,7 +19466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G483"/>
+  <dimension ref="A1:G485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36735,6 +36809,80 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-31 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-46.38388985001719,168.01551243768296</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-46.38375244214758,168.01463568052324</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-46.38349314822564,168.01381030628224</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-46.38335033544,168.01293582825198</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-46.38325685112818,168.0120405536174</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-46.3839289168628,168.01549596911633</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-46.383713739532766,168.01465199593576</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-46.38349205585458,168.0138107667901</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-46.383387159739115,168.01292030393088</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-46.38327717486299,168.01203198534412</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0536/nzd0536.xlsx
+++ b/data/nzd0536/nzd0536.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G485"/>
+  <dimension ref="A1:G487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13268,6 +13268,60 @@
         <v>316.6266666666667</v>
       </c>
       <c r="G485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>328.96</v>
+      </c>
+      <c r="C486" t="n">
+        <v>318.9677777777778</v>
+      </c>
+      <c r="D486" t="n">
+        <v>309.5266666666667</v>
+      </c>
+      <c r="E486" t="n">
+        <v>316.86</v>
+      </c>
+      <c r="F486" t="n">
+        <v>316.5433333333333</v>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:13+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>340.06</v>
+      </c>
+      <c r="C487" t="n">
+        <v>337.2422222222222</v>
+      </c>
+      <c r="D487" t="n">
+        <v>324.8433333333334</v>
+      </c>
+      <c r="E487" t="n">
+        <v>326.49</v>
+      </c>
+      <c r="F487" t="n">
+        <v>337.1466666666667</v>
+      </c>
+      <c r="G487" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13284,7 +13338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B563"/>
+  <dimension ref="A1:B565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18922,6 +18976,26 @@
       </c>
       <c r="B563" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -19466,7 +19540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G485"/>
+  <dimension ref="A1:G487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36883,6 +36957,80 @@
         </is>
       </c>
     </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-46.38397376180269,168.01547706476978</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-46.383740033164,168.01464091163746</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-46.383511057361446,168.01380275637396</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-46.38342674370122,168.01290361616918</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-46.38327645620193,168.01203228832424</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:13+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-46.38406948848599,168.01543671114754</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-46.38389763202047,168.0145744742747</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-46.383643147995315,168.0137470710894</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-46.38350979239444,168.01286860450494</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-46.38345413792279,168.01195737926503</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0536/nzd0536.xlsx
+++ b/data/nzd0536/nzd0536.xlsx
@@ -19169,28 +19169,28 @@
         <v>0.09080000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05795808190750187</v>
+        <v>0.06212533043991569</v>
       </c>
       <c r="J2" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K2" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002167283920640362</v>
+        <v>0.002505505144881903</v>
       </c>
       <c r="M2" t="n">
-        <v>6.819380024282734</v>
+        <v>6.81335576301848</v>
       </c>
       <c r="N2" t="n">
-        <v>86.66511538690588</v>
+        <v>86.53160905232401</v>
       </c>
       <c r="O2" t="n">
-        <v>9.309410045051505</v>
+        <v>9.302236776836205</v>
       </c>
       <c r="P2" t="n">
-        <v>327.9947986676292</v>
+        <v>327.952702812286</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19247,28 +19247,28 @@
         <v>0.0514</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07583290173223592</v>
+        <v>0.07955308791560364</v>
       </c>
       <c r="J3" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002799482146562893</v>
+        <v>0.00309709523681001</v>
       </c>
       <c r="M3" t="n">
-        <v>8.202273852892706</v>
+        <v>8.203268783773186</v>
       </c>
       <c r="N3" t="n">
-        <v>114.9382251798199</v>
+        <v>114.8824293012018</v>
       </c>
       <c r="O3" t="n">
-        <v>10.72092464201758</v>
+        <v>10.71832213087486</v>
       </c>
       <c r="P3" t="n">
-        <v>321.7616624373095</v>
+        <v>321.7240977095611</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19325,28 +19325,28 @@
         <v>0.0871</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09340197098561114</v>
+        <v>0.09630159928914911</v>
       </c>
       <c r="J4" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K4" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005770402450915979</v>
+        <v>0.006168010878039643</v>
       </c>
       <c r="M4" t="n">
-        <v>6.582140573827728</v>
+        <v>6.585689522453189</v>
       </c>
       <c r="N4" t="n">
-        <v>84.20606994145034</v>
+        <v>84.14365173194039</v>
       </c>
       <c r="O4" t="n">
-        <v>9.176386540542543</v>
+        <v>9.172984886717103</v>
       </c>
       <c r="P4" t="n">
-        <v>311.3557441853034</v>
+        <v>311.3265180808754</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19403,28 +19403,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01489877635458984</v>
+        <v>0.02009761868189995</v>
       </c>
       <c r="J5" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K5" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001737377853195943</v>
+        <v>0.0003179962799227942</v>
       </c>
       <c r="M5" t="n">
-        <v>6.257115926254958</v>
+        <v>6.253432201608915</v>
       </c>
       <c r="N5" t="n">
-        <v>71.16197894722706</v>
+        <v>71.10625078276179</v>
       </c>
       <c r="O5" t="n">
-        <v>8.435755979592289</v>
+        <v>8.432452240170814</v>
       </c>
       <c r="P5" t="n">
-        <v>315.2964358648713</v>
+        <v>315.2438464461338</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19481,28 +19481,28 @@
         <v>0.068</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04704266881913615</v>
+        <v>0.0514490570495565</v>
       </c>
       <c r="J6" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K6" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001233597700273092</v>
+        <v>0.001480647676090907</v>
       </c>
       <c r="M6" t="n">
-        <v>7.573315871448358</v>
+        <v>7.584827039722244</v>
       </c>
       <c r="N6" t="n">
-        <v>101.1286281928102</v>
+        <v>101.266056445049</v>
       </c>
       <c r="O6" t="n">
-        <v>10.05627307668255</v>
+        <v>10.06310371828936</v>
       </c>
       <c r="P6" t="n">
-        <v>320.4167100394995</v>
+        <v>320.372498941685</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">

--- a/data/nzd0536/nzd0536.xlsx
+++ b/data/nzd0536/nzd0536.xlsx
@@ -19160,13 +19160,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.0576</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09080000000000001</v>
+        <v>0.0965</v>
       </c>
       <c r="I2" t="n">
         <v>0.06212823758310378</v>
@@ -19238,13 +19238,13 @@
         <v>0.7500000000005543</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0441</v>
+        <v>0.0548</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0514</v>
+        <v>0.0825</v>
       </c>
       <c r="I3" t="n">
         <v>0.07959380566307325</v>
@@ -19316,13 +19316,13 @@
         <v>0.4999999999909546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0693</v>
+        <v>0.0679</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0871</v>
+        <v>0.1291</v>
       </c>
       <c r="I4" t="n">
         <v>0.09629538185411235</v>
@@ -19394,13 +19394,13 @@
         <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0735</v>
+        <v>0.0708</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.1622</v>
       </c>
       <c r="I5" t="n">
         <v>0.02008115619449236</v>
@@ -19472,13 +19472,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.095</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0515</v>
+        <v>0.0722</v>
       </c>
       <c r="H6" t="n">
-        <v>0.068</v>
+        <v>0.1338</v>
       </c>
       <c r="I6" t="n">
         <v>0.05145777486989983</v>
